--- a/Liste med info.xlsx
+++ b/Liste med info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cfiveapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\C5toBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ADD33D-19E8-4E05-9C95-E146FD8F240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B1FA8-D3F9-4020-AC7C-AB96C3B90FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C36D31B0-EBB7-466D-9D4E-0F4DC11FDFFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C36D31B0-EBB7-466D-9D4E-0F4DC11FDFFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordrekartotek (DAT)" sheetId="1" r:id="rId1"/>
@@ -9054,8 +9054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56454F00-2240-43CB-B406-16E154453728}">
   <dimension ref="A1:CH331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BR24" sqref="BR24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
